--- a/키워드정리.xlsx
+++ b/키워드정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764699B-9DCE-4EFC-8896-729448CC2555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699820E7-D3FE-4FDB-A82D-EE42F5F5C387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="1080" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
   </bookViews>
@@ -380,11 +380,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>booking.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timetableAdd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketing.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DFF87-6D18-444E-9A0B-D8700475E296}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>

--- a/키워드정리.xlsx
+++ b/키워드정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699820E7-D3FE-4FDB-A82D-EE42F5F5C387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE148E-1B9C-4120-8F54-3282BAF77975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1080" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
   </bookViews>
   <sheets>
     <sheet name="접속정보" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,14 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>movieStory.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +377,22 @@
   </si>
   <si>
     <t>ticketing.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 문의 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버십 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 예매내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myTicket.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DFF87-6D18-444E-9A0B-D8700475E296}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,368 +809,379 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>59</v>
       </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>30</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>29</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>28</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
     </row>

--- a/키워드정리.xlsx
+++ b/키워드정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE148E-1B9C-4120-8F54-3282BAF77975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25503A-98CF-4DE7-A741-5BA2C4C5C957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
+    <workbookView xWindow="4605" yWindow="1770" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
   </bookViews>
   <sheets>
     <sheet name="접속정보" sheetId="1" r:id="rId1"/>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ticketing.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나의 문의 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,10 @@
   </si>
   <si>
     <t>myTicket.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +796,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,13 +909,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,12 +931,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">

--- a/키워드정리.xlsx
+++ b/키워드정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25503A-98CF-4DE7-A741-5BA2C4C5C957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D96160-5FB0-4651-B2A1-5C8E5631297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1770" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
+    <workbookView xWindow="11055" yWindow="480" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
   </bookViews>
   <sheets>
     <sheet name="접속정보" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간표입력페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timetableAdd.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나의 문의 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +385,14 @@
   </si>
   <si>
     <t>book.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DFF87-6D18-444E-9A0B-D8700475E296}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,345 +807,390 @@
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
       <c r="I26" t="s">
         <v>15</v>
       </c>
@@ -1155,10 +1200,13 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>

--- a/키워드정리.xlsx
+++ b/키워드정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D96160-5FB0-4651-B2A1-5C8E5631297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2DF5C-4D03-4FB2-87A1-18D599B2BA0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="480" windowWidth="15435" windowHeight="13695" activeTab="1" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{942862D5-0A05-48F5-9FB3-9F83174FA707}"/>
   </bookViews>
   <sheets>
     <sheet name="접속정보" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,14 @@
   </si>
   <si>
     <t>애매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영화API키 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db07044ab4c230017b51adcdb03b9855</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +419,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -434,18 +451,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75121B4-21B8-40A4-B7C2-58A02828DBC3}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,10 +808,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="https://www.kobis.or.kr/kobisopenapi/homepg/apikey/ckUser/saveApikeyForm.do?apiKey=db07044ab4c230017b51adcdb03b9855" xr:uid="{AABFA774-CD09-4E1C-B326-6161431E5238}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -795,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DFF87-6D18-444E-9A0B-D8700475E296}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
